--- a/MinSheng_MIS/Downloads/巡檢結果.xlsx
+++ b/MinSheng_MIS/Downloads/巡檢結果.xlsx
@@ -6,63 +6,114 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="MBR反洗泵浦" sheetId="1" r:id="rId3"/>
+    <sheet name="每小時日常巡檢" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">工單編號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工單名稱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工單日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巡檢路線名稱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P25012101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBR反洗泵浦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/01/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:20</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+  <si>
+    <t xml:space="preserve">工單編號:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工單名稱:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工單日期:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巡檢路線名稱:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P25021301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/02/13早班巡檢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/02/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每小時日常巡檢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">設備名稱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開始時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結束時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR反洗泵浦BWP-531A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否有異常聲音?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否有異常振動?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泵與管路是否洩漏?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">密封與填料是否洩?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">軸承箱油位檢查(L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">軸承溫度(°C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出口壓力(MPa)</t>
   </si>
   <si>
     <t xml:space="preserve">MBR反洗泵浦BWP-531B</t>
   </si>
   <si>
-    <t xml:space="preserve">是否有異常聲音?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否有異常振動?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泵與管路是否洩漏?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">密封與填料是否洩?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">軸承箱油位檢查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">軸承溫度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出口壓力</t>
+    <t xml:space="preserve">膜濾池鼓風機CBL-511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">軸承溫度的檢查(度C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">膜濾池鼓風機CBL-512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">執行人員</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App使用者、王小明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App使用者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00</t>
   </si>
 </sst>
 </file>
@@ -104,118 +155,260 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="30" customWidth="1"/>
+    <col min="3" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>5</v>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="13">
+      <c r="B13" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="14">
+      <c r="B14" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    <row r="15">
+      <c r="B15" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="16">
+      <c r="B16" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MinSheng_MIS/Downloads/巡檢結果.xlsx
+++ b/MinSheng_MIS/Downloads/巡檢結果.xlsx
@@ -17,24 +17,24 @@
     <t xml:space="preserve">工單編號:</t>
   </si>
   <si>
+    <t xml:space="preserve">P25021301</t>
+  </si>
+  <si>
     <t xml:space="preserve">工單名稱:</t>
   </si>
   <si>
+    <t xml:space="preserve">2025/02/13早班巡檢</t>
+  </si>
+  <si>
     <t xml:space="preserve">工單日期:</t>
   </si>
   <si>
+    <t xml:space="preserve">2025/02/13</t>
+  </si>
+  <si>
     <t xml:space="preserve">巡檢路線名稱:</t>
   </si>
   <si>
-    <t xml:space="preserve">P25021301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/02/13早班巡檢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/02/13</t>
-  </si>
-  <si>
     <t xml:space="preserve">每小時日常巡檢</t>
   </si>
   <si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">結束時間</t>
   </si>
   <si>
-    <t xml:space="preserve">MBR反洗泵浦BWP-531A</t>
+    <t xml:space="preserve">MBR反洗泵浦 BWP-531A</t>
   </si>
   <si>
     <t xml:space="preserve">是否有異常聲音?</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">出口壓力(MPa)</t>
   </si>
   <si>
-    <t xml:space="preserve">MBR反洗泵浦BWP-531B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">膜濾池鼓風機CBL-511</t>
+    <t xml:space="preserve">MBR反洗泵浦 BWP-531B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">膜濾池鼓風機 CBL-511</t>
   </si>
   <si>
     <t xml:space="preserve">軸承溫度的檢查(度C)</t>
   </si>
   <si>
-    <t xml:space="preserve">膜濾池鼓風機CBL-512</t>
+    <t xml:space="preserve">膜濾池鼓風機 CBL-512</t>
   </si>
   <si>
     <t xml:space="preserve">執行人員</t>
@@ -253,22 +253,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
